--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/25_Denizli_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/25_Denizli_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C11BE586-33A0-4F5F-89DD-7B36ED70E06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFFAED02-D2BE-4EFF-AEF7-6146C600F2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{844F0FBE-DC93-4FBD-876A-E7D02B43DECC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{4241915F-C4F0-4995-94A8-307BCB1D77EB}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -939,13 +939,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{E0EC99A6-8053-4237-8033-F7902E129E81}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{FCD0C2AA-8886-42A0-B905-628E18330AE5}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{D8780F34-937B-4FA8-BB76-788EE3D9E234}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{3DA74EBA-E612-4B6D-B099-014A1A61F7DF}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{E8FB120D-5ABB-44C5-BB25-7463B50C0566}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{35C61F08-EA90-4D33-ADA0-470279FCC050}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{44477896-40CC-4460-8DD2-A751C730E2E9}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{5A97F659-E973-434E-90F9-FC8CFDB44503}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{475F1F00-EAB9-4459-A5F9-C3B50067E184}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{33994500-32C5-4505-9A5E-A5B09D25ADA7}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{5340B72F-691A-4ED9-8A35-9EC73F81F09F}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{382525A5-85F4-481E-A28B-F58ED6B6C090}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{700FD915-B269-4A85-BC79-8FC53FCD4F6D}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{DF8D9C46-5DD1-4594-8683-34BDFF2BD129}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C372381-F192-47AC-B46C-DDCCBD249240}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A39098E-8197-41EC-8D8A-3B0BE582E033}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2580,18 +2580,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7EDEC0C5-14B0-4FAA-816B-4BEB81B695B5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{136EEEDE-D266-4F93-B0A7-A7FCD82CA46E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CE65E814-E9C8-4E31-BD84-923ECB4D0C97}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2021CBB1-DFC5-4957-9113-F4AE2BD5AAD3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CED84015-0A37-4EDC-B4D8-80C923667E90}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{091C2737-E546-4517-B600-995C59FD3EE4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{65DD74EB-6B43-46AE-8FC5-71EE3DF1718B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{231B3F5E-B61B-48A4-BDA1-CA185E64DD3D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7FE333A7-0264-4B1C-A97E-0EF5417B8D5E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{724D83B6-6A22-4C80-8A23-C0971FD8AFD0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8F45E8AD-3CF1-47A3-A28B-60E3E9B53884}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4C2098A4-7F4D-4588-8763-801FB12A3BF2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5BE3F9E2-3502-4EF8-8B1A-BB7515DE835D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F9AC7827-6422-497C-9618-2A617E7FF0E3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8E71279B-A98A-42F8-AEFD-10962ED35724}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4CBCDC6F-C7D9-4169-9726-8FFDFD4B9256}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F9653A3A-BF34-418E-A554-43AEFF0B8281}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1F8EED01-BAF6-4104-B7DE-CBEC83BBC728}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A29C22C4-3B45-4854-B404-C9AA7964276A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A5C30FA2-51A2-40AC-A83F-46933FF42A8B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2E5D5422-10D0-4FCA-9951-9DC8F8D94D50}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C5B85BD6-5675-4B05-BAA0-78056B16AAF5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ABF87991-C396-45FC-9295-A81E8BC8785D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{823C7F23-62DD-4F80-8098-90689045A4C9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2604,7 +2604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99E022A-A5B0-4537-B26C-6FD7A5159A81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E072CB9F-2E9E-4E2C-B612-AEBCD3B4F62A}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3866,18 +3866,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{63A5FCFA-7CC4-49CA-92B9-9312A9B1F71D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6ACD48A7-EF77-4D36-8E57-417F76E193C4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{27FD09F9-7D41-40F9-83DD-2AC9367D81B2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8512728D-D4D0-491B-B18C-138947F6CBEF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F2B0AD35-B608-4F24-9A07-87866A37ED75}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8E24992B-EB09-45F8-986A-FF04A07BC85F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5455B24E-A35F-4F59-BD50-B86CCFEC9FAD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A7D83D10-2C7A-43F4-9DBD-E33DF032ED12}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EE7CFC98-896B-4AD6-8A32-DBD6CB85270B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FED0B7C3-310D-4B27-8941-AF8B862516FE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C140544-85BF-4653-B5DF-73E3D2DA8BD3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A360D4A4-0013-4881-B0B3-D5122A35B1EB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D1DDBC04-54A7-4905-91EF-650E89D03C80}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F9C3D982-C0E0-4050-AFA0-2596287709E3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{67AC9C9D-8289-44C5-84B8-60A6BFF189F1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D70C0487-EBBB-45EB-B3BE-2F351905474F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{96B71F0D-273B-482E-B14A-4A0B673CAA86}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6E5D9AA7-C744-4543-B0B4-C1D019B2D0E2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5F84E148-E004-493E-850A-10707136A567}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{03976139-5E41-4120-A7F0-6979B0A12259}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{88BEC337-87AE-43A5-B5F0-F46A76E61B34}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{42DACF15-4C4A-46A7-9213-8CB9DD4710FE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3C2B6CAA-1418-493D-A9C6-8702266BD317}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F1B961ED-ED1C-462A-97D9-BECCC8E300F4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3890,7 +3890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8BBF2D-E2A1-41C3-812F-CFD63C15360B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66AC4B0C-B86E-4089-BD62-953DFB05C3C7}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5152,18 +5152,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EE995BAD-B7D3-4EAB-A2EB-486536AC9304}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{953C6007-2946-43B8-8C6D-6F8168B473B6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{699545B2-81F5-4D10-80D7-88DB0E2ED0DE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{999CE85F-A2C8-4FE4-8D3E-A9412C8D4652}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E0AE4844-6C0D-474B-A2C8-409608ADF069}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7E6712B9-5170-45F4-A2C1-2AE3E1DC4936}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{98E104DE-9BB9-4E87-AD88-2838EEB65160}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2E8BEC91-13A6-4469-B088-DCC6FFF7EC6E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2E09038F-CCFA-4CF9-8CAD-D403DF9FC4CD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7F9ED122-90F0-4D29-8AC1-97E2B0FB237B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{88B3B8A0-F631-4DB1-BC8C-9BA51D256B6D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{55CE9059-668B-423F-AE8D-AE3D9045883A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E4D43F34-C393-4CAC-AA6C-F07700BD7ED6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BC255C0C-6D40-4871-AFB4-DCBC8B8FE9F9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F6EA2B0A-B0F7-4807-A521-F6D0595EFE04}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8291CE33-58D1-4F37-B9D4-7C46290C58BE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{75D4CB6D-AF25-464D-9CD5-4A4B2E34BEE0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E4C63405-EE95-4351-8B5A-6EDFA8275444}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6357269E-5B27-4E6F-B2E9-6DA1A91D792E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9DB1BEDD-B8FA-43F1-AE7A-EFF7B94FEA2E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5BE144A2-E3C5-4350-A306-B1F012B00530}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9CE13D2D-E21F-450B-AE0B-23418BAE2C46}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FAF839AC-2976-413A-A87C-8B23A7CF1063}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3BCD003F-10E0-4417-92E3-36B5D91D65CA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5176,7 +5176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22B7A96-E613-4219-96C4-FBA2BF65AF12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF731FE5-9AE9-4035-93B6-9EF7D9F669B7}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6436,18 +6436,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{548DE48E-0C85-4B95-9E8C-23385A5D5E09}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2C50DEC0-5E9E-4B43-BEE1-AD3AD746788F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BF83C6FD-EE2D-4DC8-8365-40E0C00F8346}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E3CE3AF9-0C4D-4174-A1B8-5806502E6D5C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E2E43319-8FE5-4D4B-AC36-3D720D50F50D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{13093C04-8EF7-4570-94E4-0AE5F38B0CEE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2FC4D99E-0C44-400D-BFB3-A508E74ED832}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6D751332-D3E3-45D2-96FD-E49EA6304992}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{599D7A9E-CDBA-44BC-9B2B-8FF7A777277D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F36CE7A8-773B-4F6C-8E86-AE80A5610C88}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{696471E8-CDB7-49B1-B6CF-FF2901D09814}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C86FFEA4-89F0-4B57-8F12-DCC380D21CA7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{76BE309F-2687-4D92-BD32-081C1B9ABAB7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{80725DE5-6896-44EF-B0C2-0F2860731FB9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B3551D57-3A4B-4373-B132-6D0966F69B2E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8967636B-90F6-42BA-923D-CAEF1402D898}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BEA0BFEE-E5CE-4D0D-B554-7A0C3EA53DFF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E34DC8DA-422E-44F9-8351-87E03A0B1EAD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EC0344B2-F2E1-44CB-9175-41A29709F664}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B8E0CACF-F8BB-4DC7-8B6B-5528F3DB00BC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C08804F0-0FF0-4512-9E1E-0E148F881C80}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9DED5112-D397-4698-A838-A1AE9814B569}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{267F51C2-9106-4E5B-9536-9068BAB053FE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AC5775A7-6027-43DC-AF1A-10669DF97E9D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6460,7 +6460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D938E0-F7E8-4BD4-A656-B43274B8DFC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48412A1-F57B-4E3C-B5F9-A0A30B2203A6}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7725,18 +7725,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7CE962C4-0781-4A12-B9E4-B55AD1FA2BFF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B5FAF7F6-09EA-4036-B407-6CF7102C2B5F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AAEE7923-B923-4E82-A2CF-8EC77B8FDFE4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ECDC8DEA-A6CD-4861-BF52-76148284E8DC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7C0208AE-20A3-4194-9B36-AAF3ED603EE1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C77CB418-4373-41CD-A52F-00D64E74F776}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1705E914-69B3-44C1-BE0B-C6E920EAE9BD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3181178E-253C-4EFA-BC09-E3C554FB778A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{58E953F7-32A2-4243-B18A-7104D490344C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1CC30F3F-6118-4234-B412-1F8B6EC9FC71}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0E97D46E-7E75-42FB-A0C9-8C4915EF9A1E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{85C04042-D780-4ADA-99BF-648A69E17D33}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B5E5021C-06B0-4746-905F-9F554D269779}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{19DB5774-3821-4367-BAE5-072DB20EB7BF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C6EBAC1B-49FF-46D4-BB1F-792A774C0C44}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B54BBFAC-FEC6-43D2-B45E-AB4059448EA8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E1E142F4-DA30-4F36-AC6B-48616C13C103}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{24656C34-4F1A-4CD5-9B68-F69C7C9A694B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5570D5C2-7F6E-41D7-BB7F-BCA87A595446}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4DD3E107-5B72-4E17-BB80-64CB5ABE76A4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E15E241F-C75E-4830-AC15-017DDDA781C4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3D29B917-BFAE-4ED5-8E0D-AA79C836659E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{317C1286-9F97-4BA8-80BE-008CBCE9312F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4E6C8D32-7BE8-4EBD-A97A-CB57DA4F1D8B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7749,7 +7749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AACE1E-73A4-4AFA-8753-E07956F17AA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26A2CFA-6F72-4B67-B70A-E92110068ADD}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9014,18 +9014,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8280DAFC-A250-4F70-B6D9-268A680DF1D5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DF7EED32-5459-4A39-9594-AE5B89C740E5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2D2E0B05-C2C6-4A21-A73F-83BA3CF8770A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{64A12672-E3F6-4F82-BD68-70C5EB3B7923}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E16FC9A0-0437-4F6C-86A3-8553875C2887}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E637B015-78C8-4EF0-AB86-B269D7095973}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BB53BCCA-4B24-4523-A659-2ECD5DE19259}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{41FE7ACD-572A-4FBA-A39F-5EA7ABAD8E0F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7A0A5AA2-6378-49C0-9AFD-1495A7C2F0C6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A2FF9349-A975-404C-BD8C-85CC10DCE8AA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BA58BFF9-B2B8-4EFC-ACB0-9DB0CAB47106}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4E4CA6D4-394E-4901-A330-D75D4824CE05}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8D8CC15E-DB7C-4BC5-B189-BF5926EA5F05}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{12F181DF-1423-4913-9AD2-FBE7802D89D4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A1DB66FD-0DC5-4B64-B6B0-99E0AA790264}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7A2620E3-79C1-4D10-A508-5BF165EBAC9A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{418D417B-7B72-4696-8956-53EE8A507124}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A91061EB-1309-4C0B-910B-38BE531E3CEF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3CCA921A-B1A6-433E-A0C6-D89505A674EC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2A938291-D52F-4ECC-AE96-3267D388E534}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{75B8F847-4749-403B-90B8-86F685FC8994}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B6B11B16-1643-4754-94D2-4951382863D4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B6A6820E-EC08-47A8-A05B-4BDE76C306E6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D0E968F2-950C-437A-B4F6-1D5C26A5EEC9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9038,7 +9038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1672D053-ED73-4D50-AEF5-C5D498ED19A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81239F5C-6EF9-455D-8848-50BB349E2E99}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10303,18 +10303,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{30723C63-097C-459F-B180-4796E76EE3D2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{42D0BDDA-B5A4-43FE-8BA8-BABE00ABC309}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C6E505DC-2A97-462B-96B0-49C06B6CB33F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{222D0583-47CA-41A6-9CE8-9A97DB1D18A4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BF02ED50-7A9D-4195-9D15-B0DDA71645E3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{58AEF7FD-2A78-40B9-BE2D-71F721B49598}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{331415A9-9217-434F-9512-4FAE3F1CCCB3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C545019E-6C6A-4D3A-997F-D5E8F7C94CBD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D6E219E7-C3FF-4FFA-A596-547A2E6A8998}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D5C31269-BBC8-465A-97CF-7F8E6E5B6C98}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9C183497-FFF5-4EB3-9F54-F118CBEEF1EE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DE1405E1-E2A3-4217-BFE5-2F750B83631B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{90E06CB9-A0AE-4A59-BA6D-EE633250FBA3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{519FCE82-446E-4AEE-BAB5-3112D26721C8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{11E5DA22-77D8-45CE-AE89-2F2356C1126D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B82CD7E9-B8EF-40EA-9EF4-35900585B9AA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{20FDE1CF-180B-4B1E-8D4D-F2976F53496D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7F7F2ACA-DC5E-4A1D-A9FF-8D6434E38C42}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B5B03D46-FD04-4B33-9ED1-1A89BBE8CF09}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1991137C-9CCA-4F04-8A09-0CD3CDD8EB25}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A1F4F8FA-BF39-4D52-8CC4-B2CCA6A0EF08}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0B8B2F60-A6D7-40FE-BE1D-8C62A42831CF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{760DED53-5E3B-45EA-8AF6-537349381388}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D8FEAE46-784F-4122-BE64-1CF545E78643}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10327,7 +10327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FA4843-4794-4377-91A9-5E02C17C8179}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A381E9-1E0A-424D-8B90-4F86D56C296D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11592,18 +11592,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{475C0E68-3767-4861-ACBF-9B88EBD01196}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9B0C6381-3E64-470B-AA90-F46413442DE2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{40B71E6D-F8FB-4EE2-A3C2-752327B2355F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{02693873-FA16-44F1-BE89-FF3B7E2F9870}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B275F8CB-2E09-4111-8FC0-B5E84C151C8D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{61177301-60D0-4F2A-966E-5E831F0043EF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EB9AE225-9822-4764-A12F-7C8CA4EAACD6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A7AAF763-469D-4C77-9F0D-DB4D1A543B24}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C071F4CD-10B7-466A-B629-60FE8244E57D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8316427E-CC8D-486E-9D59-7BF137BB0F02}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C5D71830-0855-4797-94B6-64FAD2B87BEC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DAAE4E3A-6852-46BF-A113-B35CAB8556BF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D4E9DB2F-6BD0-41F8-8F0B-658A1608BDE3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CD7FF7D6-D7FD-406D-86A0-60C084C31220}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AB5E8E94-64F3-43CF-897D-DAECF26897F5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7BD99890-58D5-401C-A167-380FA125810B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A3B8C368-E8C1-4BF2-9B3E-ECEE500A6C82}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{46BF516B-0B96-413B-B52E-12B801B93940}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{160ED1C3-3C54-42F8-84D9-16DA742CE48D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{38DA5EB4-1D93-4A09-B114-FA9F0C961E46}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1CF5D3D7-2181-4001-9C7E-325FC2DB8763}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{34B0224F-75CE-4AC1-9929-635D40D80260}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{84020F3B-41AC-4A5F-96C3-B08C4AAD47C5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A2548C28-7740-4F9A-BDC0-CB272B11E177}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11616,7 +11616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454A6B9F-C1BB-4B1C-BE1E-F2C1BE45990E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3CBC9A-3E6B-4234-87FA-7FFC1DD1BD6F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12877,18 +12877,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5A2611A3-9451-4553-8CD9-8D76F7BFD4C2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B07D3412-C000-4124-8128-3B616F29BDCF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{15FF5F60-CFE2-4914-BFC4-6759C0DB5E1B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2F8C073C-9A0A-4F05-8536-55BCAD4D6F83}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C579AEBF-C378-40C9-B6E9-31D332CE11C7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0627002D-F9A7-4339-B0E8-EEAF75398475}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B122F9C7-31E6-41B6-A67A-8059BAE0AE2B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2FDF6E14-7AFE-4DDC-AE73-CD8A53FA4AD5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B91A6D1E-54C6-49B8-B018-766E93CDC17C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{806053B0-015E-48C6-AB93-1CDC3035D9C4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{415F6764-F7FF-4ED8-800D-B91CF33A22D3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{36E5BD8F-A43E-4693-811C-DD72ED46FEB6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F4B9BA0E-107D-4563-822B-112F19A83FB9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{78E04CD7-3D9D-41A4-9449-80464FAFF73D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{23F94D22-7E74-4516-8CC1-B66913B9FA7C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{37652CBF-CC7A-4C90-BC3C-FC13C943C4A5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9F418412-11E1-4175-A9BC-BECF79345DCA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1CA5D74D-5A10-4F62-B0C0-1C644E64BB01}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F409B864-81D6-4F54-876B-3B5527F00E96}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A174F1E7-09D7-4394-8216-C4765A2FD891}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7D064090-A13A-471A-B49E-4740EC3FF907}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F416F278-CAFA-4E3F-AF97-23EB604C3FD6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3FA3BB4D-7207-45FA-8C23-14C62EA8F6A4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DC0B4545-D024-47FE-9899-78518BD1D32D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12901,7 +12901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F4EA40-9253-4174-8DBC-094C5DEE0518}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095ECAE0-88B9-4D0A-92CC-23BFF072A134}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14162,18 +14162,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DF4C2057-ACDC-4358-B7C1-14B2E8A9A9C5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D6B006D-B2DD-4F9B-A6B8-E43D00FA4255}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{771911CA-AF9B-4572-9D37-9AB03C057A1F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AF62A477-C4E0-4506-8C3F-17FFB3373724}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{54CB3164-9681-4C32-9317-1EDE185F0647}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5F852CDC-E053-49F7-B9F9-67E341B2FF8C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0CC182BF-0BB9-454B-8A43-4194299A6561}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{37E88E6F-3947-4BD1-94AA-5A592CC7CC25}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{22A31C97-7F11-44C5-BBC7-BB2075043A98}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{661043F0-B2BC-45AB-AF6D-22160CE3AA51}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BF3FE76A-5297-4922-9056-0BC9C08D6443}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D322118B-51A7-4B3F-8FBA-2E56CE622675}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5845CFD4-7840-4F37-BE36-9CBA879CB31B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C52E5963-9FDA-4040-804E-5BB8E69FDDBD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F3545449-0E06-47A2-A5F4-91C7BF295202}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2A975F63-C4CA-42B9-B97C-718FEA661452}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{27B7D1F8-E86E-4C5F-B84A-26ACB4DEED2B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C41A6017-8D15-40F1-9D37-93BA7A9D1BB5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{972C9915-7AA8-4955-B642-DA5C59339914}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E3B1E2B4-6B7B-4D89-8F23-758390651050}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F448939A-D23E-43F9-91E4-83B0B0F76DE3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D533ED2A-31EC-48C7-9A02-4082A6DF0521}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{65E7E319-86A3-4285-83B0-1044AC0FAA74}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{932FCE84-B22A-4914-91F2-CE434615FCE9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14186,7 +14186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F2EAFA-CDFA-46FD-A22F-DD880E6AC740}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7ECA12-66F6-45AF-A4D6-DBA243E62EC7}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15447,18 +15447,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1A9EE3C7-AAB9-42B3-AEFE-FAC874800526}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1B01E11F-9616-4C68-AD5C-B660684C3C54}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{14902B32-8BD2-4D97-BA9D-A353E26CC96E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7A68CB72-1C69-4AFB-AE70-1C39F07056B7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5285A606-1178-4BB2-AB14-4D77230A2905}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{95BB48D8-0D14-4B14-9182-8BCF26E0CC13}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2311B368-244E-4AEE-B4E2-3411FC492C20}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8CC7A480-490B-4BB3-BA10-AEAEE428AA63}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{76AE3021-117E-455D-95BC-5F9C9C8C689F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{319DB0C5-2D40-4E04-AD69-E14D5FDFFA3F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A3462FC6-2DA0-4EA6-ADB7-BF7EBBD8EA13}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A8E0F8DD-4B84-4726-B7BA-62BA356A2027}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9BA2377B-E726-4351-944B-DFEE10319AA6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DA35A02E-A15D-425D-B37A-076B0358C6DE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{58CFF731-3289-4010-AB55-25CEF9DD5D3E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5E777AEE-ADA7-49BC-88B8-03137E322566}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CF035D8F-732F-4E80-A6F4-F8155D859EF2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E668B129-0E48-4AF8-A600-41D60833ABA9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2E7FCFA6-011D-4CA5-801C-023588DD5D8B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9572F6AF-D4BE-4896-A1C0-F4C4EBF97EE0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{871DAA4F-9771-4E30-85B2-CAF0FCDE1C4B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9A4C44F3-9B05-45A3-9BA3-2DEE029A64D2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5B5048F8-E1CC-4FF9-B7C4-128A79A5A9ED}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{537127CB-27D5-4AA8-800B-550E572FF8C9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15471,7 +15471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BC08EB-751A-43B5-A1CD-D694F2F9B6D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85301F9B-215E-451B-895B-E0A79CF5DC0F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16732,18 +16732,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{419A611C-64E7-4362-8D90-DD4DD1A6C039}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E975726C-9480-467B-AEDF-1E591949E52B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E923B606-8F8A-4545-8DAD-D8BDF56DBD96}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F41E2E40-1CF5-4766-95E4-9F2603C0B275}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{68BF04F4-6ABC-48A5-9FDF-7215D2078405}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8CE38602-F12A-4CF1-9C52-CD29675822AC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DE196BBD-9D9C-4439-8AB0-D36A868B4561}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{28CF6ED1-F79A-4A56-BE46-46C68C599729}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2D07B57B-B341-4C7E-9AF9-A14BE84C735B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D8DFD3D0-E6A9-4215-AFC1-F08CD4327FA5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ADBC3223-FCE4-46F1-B287-5875D19C1F44}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{63F75B9B-8C7D-4B2C-B70F-6D843FEA9D14}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{988B22BD-C13C-4139-B70D-7C18C4AC6E4D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{281FEA32-FF2A-4DA1-918E-0F92163E195C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{35085C72-2D77-46CB-9D25-190ECF2AAF48}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{12AE4844-F209-47F3-B276-F8E2E85A5FC6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{50A2E775-EF80-4125-B2CB-EEF8C0B9132A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ABAEECF7-8C92-4F63-B36E-17A6A34AFC8C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62ED60D1-E21B-4570-A048-7A6FBB1EF865}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FF64755D-A29F-4626-AC88-68A8FBF66038}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0E75ABB9-81EE-4265-BEEB-FA94016F11DA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4D8BEF00-DC67-4D15-818B-E8C181D2D8B4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{23FCA9C1-1A2A-4EB4-B685-5E5C4A7EB9DA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0BA4BF75-6BC8-429F-86DB-2185DA47E0C6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
